--- a/Resources/mlb-player-stats-P no dups.xlsx
+++ b/Resources/mlb-player-stats-P no dups.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenxc\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9A5AEFD-8439-47F0-9CDF-9A599AD7AE41}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="P Stats" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2422,7 +2421,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2790,32 +2789,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S752"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.59765625" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
     <col min="3" max="3" width="6.5" customWidth="1"/>
-    <col min="4" max="5" width="6.69921875" customWidth="1"/>
-    <col min="6" max="6" width="7.796875" customWidth="1"/>
+    <col min="4" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
     <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="10" width="7.19921875" customWidth="1"/>
-    <col min="11" max="11" width="6.69921875" customWidth="1"/>
-    <col min="12" max="12" width="6.8984375" customWidth="1"/>
+    <col min="8" max="10" width="7.1640625" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" customWidth="1"/>
     <col min="13" max="14" width="6.5" customWidth="1"/>
-    <col min="15" max="16" width="6.59765625" customWidth="1"/>
-    <col min="17" max="17" width="7.796875" customWidth="1"/>
+    <col min="15" max="16" width="6.6640625" customWidth="1"/>
+    <col min="17" max="17" width="7.83203125" customWidth="1"/>
     <col min="18" max="18" width="8.5" customWidth="1"/>
-    <col min="19" max="19" width="8.69921875" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2874,7 +2873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2933,7 +2932,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -2992,7 +2991,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -3051,7 +3050,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -3110,7 +3109,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -3169,7 +3168,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -3228,7 +3227,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -3287,7 +3286,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -3346,7 +3345,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -3405,7 +3404,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -3464,7 +3463,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -3523,7 +3522,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -3582,7 +3581,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -3641,7 +3640,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -3700,7 +3699,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -3759,7 +3758,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -3818,7 +3817,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -3877,7 +3876,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -3936,7 +3935,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -3995,7 +3994,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -4054,7 +4053,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -4113,7 +4112,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
@@ -4172,7 +4171,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -4231,7 +4230,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -4290,7 +4289,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
@@ -4349,7 +4348,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
         <v>61</v>
       </c>
@@ -4408,7 +4407,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
@@ -4467,7 +4466,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="A29" s="1" t="s">
         <v>63</v>
       </c>
@@ -4526,7 +4525,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,7 +4584,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -4644,7 +4643,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
@@ -4703,7 +4702,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -4762,7 +4761,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,7 +4820,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19">
       <c r="A35" s="1" t="s">
         <v>72</v>
       </c>
@@ -4880,7 +4879,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19">
       <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
@@ -4939,7 +4938,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -4998,7 +4997,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19">
       <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
@@ -5057,7 +5056,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -5116,7 +5115,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -5175,7 +5174,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19">
       <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
@@ -5234,7 +5233,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -5293,7 +5292,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19">
       <c r="A43" s="1" t="s">
         <v>81</v>
       </c>
@@ -5352,7 +5351,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19">
       <c r="A44" s="1" t="s">
         <v>83</v>
       </c>
@@ -5411,7 +5410,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19">
       <c r="A45" s="1" t="s">
         <v>85</v>
       </c>
@@ -5470,7 +5469,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19">
       <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
@@ -5529,7 +5528,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19">
       <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
@@ -5588,7 +5587,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19">
       <c r="A48" s="1" t="s">
         <v>90</v>
       </c>
@@ -5647,7 +5646,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19">
       <c r="A49" s="1" t="s">
         <v>91</v>
       </c>
@@ -5706,7 +5705,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19">
       <c r="A50" s="1" t="s">
         <v>92</v>
       </c>
@@ -5765,7 +5764,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19">
       <c r="A51" s="1" t="s">
         <v>93</v>
       </c>
@@ -5824,7 +5823,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19">
       <c r="A52" s="1" t="s">
         <v>94</v>
       </c>
@@ -5883,7 +5882,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19">
       <c r="A53" s="1" t="s">
         <v>95</v>
       </c>
@@ -5942,7 +5941,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19">
       <c r="A54" s="1" t="s">
         <v>96</v>
       </c>
@@ -6001,7 +6000,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19">
       <c r="A55" s="1" t="s">
         <v>98</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19">
       <c r="A56" s="1" t="s">
         <v>99</v>
       </c>
@@ -6119,7 +6118,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19">
       <c r="A57" s="1" t="s">
         <v>101</v>
       </c>
@@ -6178,7 +6177,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19">
       <c r="A58" s="1" t="s">
         <v>102</v>
       </c>
@@ -6237,7 +6236,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19">
       <c r="A59" s="1" t="s">
         <v>103</v>
       </c>
@@ -6296,7 +6295,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19">
       <c r="A60" s="1" t="s">
         <v>105</v>
       </c>
@@ -6355,7 +6354,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19">
       <c r="A61" s="1" t="s">
         <v>106</v>
       </c>
@@ -6414,7 +6413,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19">
       <c r="A62" s="1" t="s">
         <v>107</v>
       </c>
@@ -6473,7 +6472,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19">
       <c r="A63" s="1" t="s">
         <v>109</v>
       </c>
@@ -6532,7 +6531,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19">
       <c r="A64" s="1" t="s">
         <v>110</v>
       </c>
@@ -6591,7 +6590,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19">
       <c r="A65" s="1" t="s">
         <v>111</v>
       </c>
@@ -6650,7 +6649,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19">
       <c r="A66" s="1" t="s">
         <v>112</v>
       </c>
@@ -6709,7 +6708,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19">
       <c r="A67" s="1" t="s">
         <v>113</v>
       </c>
@@ -6768,7 +6767,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19">
       <c r="A68" s="1" t="s">
         <v>114</v>
       </c>
@@ -6827,7 +6826,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19">
       <c r="A69" s="1" t="s">
         <v>115</v>
       </c>
@@ -6886,7 +6885,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19">
       <c r="A70" s="1" t="s">
         <v>116</v>
       </c>
@@ -6945,7 +6944,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19">
       <c r="A71" s="1" t="s">
         <v>117</v>
       </c>
@@ -7004,7 +7003,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19">
       <c r="A72" s="1" t="s">
         <v>118</v>
       </c>
@@ -7063,7 +7062,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19">
       <c r="A73" s="1" t="s">
         <v>119</v>
       </c>
@@ -7122,7 +7121,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19">
       <c r="A74" s="1" t="s">
         <v>120</v>
       </c>
@@ -7181,7 +7180,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19">
       <c r="A75" s="1" t="s">
         <v>121</v>
       </c>
@@ -7240,7 +7239,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19">
       <c r="A76" s="1" t="s">
         <v>122</v>
       </c>
@@ -7299,7 +7298,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19">
       <c r="A77" s="1" t="s">
         <v>123</v>
       </c>
@@ -7358,7 +7357,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19">
       <c r="A78" s="1" t="s">
         <v>124</v>
       </c>
@@ -7417,7 +7416,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19">
       <c r="A79" s="1" t="s">
         <v>125</v>
       </c>
@@ -7476,7 +7475,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19">
       <c r="A80" s="1" t="s">
         <v>127</v>
       </c>
@@ -7535,7 +7534,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19">
       <c r="A81" s="1" t="s">
         <v>128</v>
       </c>
@@ -7594,7 +7593,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19">
       <c r="A82" s="1" t="s">
         <v>129</v>
       </c>
@@ -7653,7 +7652,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19">
       <c r="A83" s="1" t="s">
         <v>130</v>
       </c>
@@ -7712,7 +7711,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19">
       <c r="A84" s="1" t="s">
         <v>131</v>
       </c>
@@ -7771,7 +7770,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19">
       <c r="A85" s="1" t="s">
         <v>132</v>
       </c>
@@ -7830,7 +7829,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19">
       <c r="A86" s="1" t="s">
         <v>133</v>
       </c>
@@ -7889,7 +7888,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19">
       <c r="A87" s="1" t="s">
         <v>134</v>
       </c>
@@ -7948,7 +7947,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19">
       <c r="A88" s="1" t="s">
         <v>135</v>
       </c>
@@ -8007,7 +8006,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19">
       <c r="A89" s="1" t="s">
         <v>136</v>
       </c>
@@ -8066,7 +8065,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19">
       <c r="A90" s="1" t="s">
         <v>137</v>
       </c>
@@ -8125,7 +8124,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19">
       <c r="A91" s="1" t="s">
         <v>138</v>
       </c>
@@ -8184,7 +8183,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19">
       <c r="A92" s="1" t="s">
         <v>139</v>
       </c>
@@ -8243,7 +8242,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19">
       <c r="A93" s="1" t="s">
         <v>140</v>
       </c>
@@ -8302,7 +8301,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19">
       <c r="A94" s="1" t="s">
         <v>141</v>
       </c>
@@ -8361,7 +8360,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19">
       <c r="A95" s="1" t="s">
         <v>142</v>
       </c>
@@ -8420,7 +8419,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19">
       <c r="A96" s="1" t="s">
         <v>143</v>
       </c>
@@ -8479,7 +8478,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19">
       <c r="A97" s="1" t="s">
         <v>144</v>
       </c>
@@ -8538,7 +8537,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19">
       <c r="A98" s="1" t="s">
         <v>145</v>
       </c>
@@ -8597,7 +8596,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19">
       <c r="A99" s="1" t="s">
         <v>146</v>
       </c>
@@ -8656,7 +8655,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19">
       <c r="A100" s="1" t="s">
         <v>147</v>
       </c>
@@ -8715,7 +8714,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19">
       <c r="A101" s="1" t="s">
         <v>148</v>
       </c>
@@ -8774,7 +8773,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19">
       <c r="A102" s="1" t="s">
         <v>149</v>
       </c>
@@ -8833,7 +8832,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19">
       <c r="A103" s="1" t="s">
         <v>150</v>
       </c>
@@ -8892,7 +8891,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19">
       <c r="A104" s="1" t="s">
         <v>151</v>
       </c>
@@ -8951,7 +8950,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19">
       <c r="A105" s="1" t="s">
         <v>152</v>
       </c>
@@ -9010,7 +9009,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19">
       <c r="A106" s="1" t="s">
         <v>153</v>
       </c>
@@ -9069,7 +9068,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19">
       <c r="A107" s="1" t="s">
         <v>154</v>
       </c>
@@ -9128,7 +9127,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19">
       <c r="A108" s="1" t="s">
         <v>155</v>
       </c>
@@ -9187,7 +9186,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19">
       <c r="A109" s="1" t="s">
         <v>156</v>
       </c>
@@ -9246,7 +9245,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19">
       <c r="A110" s="1" t="s">
         <v>157</v>
       </c>
@@ -9305,7 +9304,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19">
       <c r="A111" s="1" t="s">
         <v>158</v>
       </c>
@@ -9364,7 +9363,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19">
       <c r="A112" s="1" t="s">
         <v>159</v>
       </c>
@@ -9423,7 +9422,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19">
       <c r="A113" s="1" t="s">
         <v>160</v>
       </c>
@@ -9482,7 +9481,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19">
       <c r="A114" s="1" t="s">
         <v>161</v>
       </c>
@@ -9541,7 +9540,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19">
       <c r="A115" s="1" t="s">
         <v>162</v>
       </c>
@@ -9600,7 +9599,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19">
       <c r="A116" s="1" t="s">
         <v>163</v>
       </c>
@@ -9659,7 +9658,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19">
       <c r="A117" s="1" t="s">
         <v>164</v>
       </c>
@@ -9718,7 +9717,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19">
       <c r="A118" s="1" t="s">
         <v>165</v>
       </c>
@@ -9777,7 +9776,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19">
       <c r="A119" s="1" t="s">
         <v>166</v>
       </c>
@@ -9836,7 +9835,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19">
       <c r="A120" s="1" t="s">
         <v>167</v>
       </c>
@@ -9895,7 +9894,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19">
       <c r="A121" s="1" t="s">
         <v>168</v>
       </c>
@@ -9954,7 +9953,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19">
       <c r="A122" s="1" t="s">
         <v>169</v>
       </c>
@@ -10013,7 +10012,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19">
       <c r="A123" s="1" t="s">
         <v>170</v>
       </c>
@@ -10072,7 +10071,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19">
       <c r="A124" s="1" t="s">
         <v>171</v>
       </c>
@@ -10131,7 +10130,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19">
       <c r="A125" s="1" t="s">
         <v>172</v>
       </c>
@@ -10190,7 +10189,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19">
       <c r="A126" s="1" t="s">
         <v>173</v>
       </c>
@@ -10249,7 +10248,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19">
       <c r="A127" s="1" t="s">
         <v>174</v>
       </c>
@@ -10308,7 +10307,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19">
       <c r="A128" s="1" t="s">
         <v>175</v>
       </c>
@@ -10367,7 +10366,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19">
       <c r="A129" s="1" t="s">
         <v>176</v>
       </c>
@@ -10426,7 +10425,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19">
       <c r="A130" s="1" t="s">
         <v>177</v>
       </c>
@@ -10485,7 +10484,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19">
       <c r="A131" s="1" t="s">
         <v>178</v>
       </c>
@@ -10544,7 +10543,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19">
       <c r="A132" s="1" t="s">
         <v>179</v>
       </c>
@@ -10603,7 +10602,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19">
       <c r="A133" s="1" t="s">
         <v>180</v>
       </c>
@@ -10662,7 +10661,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19">
       <c r="A134" s="1" t="s">
         <v>181</v>
       </c>
@@ -10721,7 +10720,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19">
       <c r="A135" s="1" t="s">
         <v>182</v>
       </c>
@@ -10780,7 +10779,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19">
       <c r="A136" s="1" t="s">
         <v>183</v>
       </c>
@@ -10839,7 +10838,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19">
       <c r="A137" s="1" t="s">
         <v>184</v>
       </c>
@@ -10898,7 +10897,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19">
       <c r="A138" s="1" t="s">
         <v>185</v>
       </c>
@@ -10957,7 +10956,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19">
       <c r="A139" s="1" t="s">
         <v>186</v>
       </c>
@@ -11016,7 +11015,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19">
       <c r="A140" s="1" t="s">
         <v>187</v>
       </c>
@@ -11075,7 +11074,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19">
       <c r="A141" s="1" t="s">
         <v>188</v>
       </c>
@@ -11134,7 +11133,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19">
       <c r="A142" s="1" t="s">
         <v>189</v>
       </c>
@@ -11193,7 +11192,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19">
       <c r="A143" s="1" t="s">
         <v>190</v>
       </c>
@@ -11252,7 +11251,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19">
       <c r="A144" s="1" t="s">
         <v>191</v>
       </c>
@@ -11311,7 +11310,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19">
       <c r="A145" s="1" t="s">
         <v>192</v>
       </c>
@@ -11370,7 +11369,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19">
       <c r="A146" s="1" t="s">
         <v>193</v>
       </c>
@@ -11429,7 +11428,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19">
       <c r="A147" s="1" t="s">
         <v>194</v>
       </c>
@@ -11488,7 +11487,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19">
       <c r="A148" s="1" t="s">
         <v>195</v>
       </c>
@@ -11547,7 +11546,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19">
       <c r="A149" s="1" t="s">
         <v>196</v>
       </c>
@@ -11606,7 +11605,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19">
       <c r="A150" s="1" t="s">
         <v>197</v>
       </c>
@@ -11665,7 +11664,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19">
       <c r="A151" s="1" t="s">
         <v>198</v>
       </c>
@@ -11724,7 +11723,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19">
       <c r="A152" s="1" t="s">
         <v>199</v>
       </c>
@@ -11783,7 +11782,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19">
       <c r="A153" s="1" t="s">
         <v>200</v>
       </c>
@@ -11842,7 +11841,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19">
       <c r="A154" s="1" t="s">
         <v>201</v>
       </c>
@@ -11901,7 +11900,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19">
       <c r="A155" s="1" t="s">
         <v>202</v>
       </c>
@@ -11960,7 +11959,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19">
       <c r="A156" s="1" t="s">
         <v>203</v>
       </c>
@@ -12019,7 +12018,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19">
       <c r="A157" s="1" t="s">
         <v>204</v>
       </c>
@@ -12078,7 +12077,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19">
       <c r="A158" s="1" t="s">
         <v>205</v>
       </c>
@@ -12137,7 +12136,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19">
       <c r="A159" s="1" t="s">
         <v>206</v>
       </c>
@@ -12196,7 +12195,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19">
       <c r="A160" s="1" t="s">
         <v>207</v>
       </c>
@@ -12255,7 +12254,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19">
       <c r="A161" s="1" t="s">
         <v>208</v>
       </c>
@@ -12314,7 +12313,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19">
       <c r="A162" s="1" t="s">
         <v>209</v>
       </c>
@@ -12373,7 +12372,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19">
       <c r="A163" s="1" t="s">
         <v>210</v>
       </c>
@@ -12432,7 +12431,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19">
       <c r="A164" s="1" t="s">
         <v>211</v>
       </c>
@@ -12491,7 +12490,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19">
       <c r="A165" s="1" t="s">
         <v>212</v>
       </c>
@@ -12550,7 +12549,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19">
       <c r="A166" s="1" t="s">
         <v>213</v>
       </c>
@@ -12609,7 +12608,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19">
       <c r="A167" s="1" t="s">
         <v>214</v>
       </c>
@@ -12668,7 +12667,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19">
       <c r="A168" s="1" t="s">
         <v>215</v>
       </c>
@@ -12727,7 +12726,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19">
       <c r="A169" s="1" t="s">
         <v>216</v>
       </c>
@@ -12786,7 +12785,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19">
       <c r="A170" s="1" t="s">
         <v>217</v>
       </c>
@@ -12845,7 +12844,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19">
       <c r="A171" s="1" t="s">
         <v>218</v>
       </c>
@@ -12904,7 +12903,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19">
       <c r="A172" s="1" t="s">
         <v>219</v>
       </c>
@@ -12963,7 +12962,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19">
       <c r="A173" s="1" t="s">
         <v>220</v>
       </c>
@@ -13022,7 +13021,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19">
       <c r="A174" s="1" t="s">
         <v>221</v>
       </c>
@@ -13081,7 +13080,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19">
       <c r="A175" s="1" t="s">
         <v>222</v>
       </c>
@@ -13140,7 +13139,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19">
       <c r="A176" s="1" t="s">
         <v>223</v>
       </c>
@@ -13199,7 +13198,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19">
       <c r="A177" s="1" t="s">
         <v>224</v>
       </c>
@@ -13258,7 +13257,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19">
       <c r="A178" s="1" t="s">
         <v>225</v>
       </c>
@@ -13317,7 +13316,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19">
       <c r="A179" s="1" t="s">
         <v>226</v>
       </c>
@@ -13376,7 +13375,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19">
       <c r="A180" s="1" t="s">
         <v>227</v>
       </c>
@@ -13435,7 +13434,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19">
       <c r="A181" s="1" t="s">
         <v>228</v>
       </c>
@@ -13494,7 +13493,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19">
       <c r="A182" s="1" t="s">
         <v>229</v>
       </c>
@@ -13553,7 +13552,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19">
       <c r="A183" s="1" t="s">
         <v>230</v>
       </c>
@@ -13612,7 +13611,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19">
       <c r="A184" s="1" t="s">
         <v>231</v>
       </c>
@@ -13671,7 +13670,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19">
       <c r="A185" s="1" t="s">
         <v>232</v>
       </c>
@@ -13730,7 +13729,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19">
       <c r="A186" s="1" t="s">
         <v>233</v>
       </c>
@@ -13789,7 +13788,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19">
       <c r="A187" s="1" t="s">
         <v>234</v>
       </c>
@@ -13848,7 +13847,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19">
       <c r="A188" s="1" t="s">
         <v>235</v>
       </c>
@@ -13907,7 +13906,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19">
       <c r="A189" s="1" t="s">
         <v>236</v>
       </c>
@@ -13966,7 +13965,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19">
       <c r="A190" s="1" t="s">
         <v>237</v>
       </c>
@@ -14025,7 +14024,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19">
       <c r="A191" s="1" t="s">
         <v>238</v>
       </c>
@@ -14084,7 +14083,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19">
       <c r="A192" s="1" t="s">
         <v>239</v>
       </c>
@@ -14143,7 +14142,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19">
       <c r="A193" s="1" t="s">
         <v>240</v>
       </c>
@@ -14202,7 +14201,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19">
       <c r="A194" s="1" t="s">
         <v>241</v>
       </c>
@@ -14261,7 +14260,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19">
       <c r="A195" s="1" t="s">
         <v>242</v>
       </c>
@@ -14320,7 +14319,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19">
       <c r="A196" s="1" t="s">
         <v>243</v>
       </c>
@@ -14379,7 +14378,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19">
       <c r="A197" s="1" t="s">
         <v>244</v>
       </c>
@@ -14438,7 +14437,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19">
       <c r="A198" s="1" t="s">
         <v>245</v>
       </c>
@@ -14497,7 +14496,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19">
       <c r="A199" s="1" t="s">
         <v>246</v>
       </c>
@@ -14556,7 +14555,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19">
       <c r="A200" s="1" t="s">
         <v>247</v>
       </c>
@@ -14615,7 +14614,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19">
       <c r="A201" s="1" t="s">
         <v>248</v>
       </c>
@@ -14674,7 +14673,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19">
       <c r="A202" s="1" t="s">
         <v>249</v>
       </c>
@@ -14733,7 +14732,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19">
       <c r="A203" s="1" t="s">
         <v>250</v>
       </c>
@@ -14792,7 +14791,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19">
       <c r="A204" s="1" t="s">
         <v>251</v>
       </c>
@@ -14851,7 +14850,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19">
       <c r="A205" s="1" t="s">
         <v>252</v>
       </c>
@@ -14910,7 +14909,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19">
       <c r="A206" s="1" t="s">
         <v>253</v>
       </c>
@@ -14969,7 +14968,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19">
       <c r="A207" s="1" t="s">
         <v>254</v>
       </c>
@@ -15028,7 +15027,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19">
       <c r="A208" s="1" t="s">
         <v>255</v>
       </c>
@@ -15087,7 +15086,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19">
       <c r="A209" s="1" t="s">
         <v>256</v>
       </c>
@@ -15146,7 +15145,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19">
       <c r="A210" s="1" t="s">
         <v>257</v>
       </c>
@@ -15205,7 +15204,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19">
       <c r="A211" s="1" t="s">
         <v>258</v>
       </c>
@@ -15264,7 +15263,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19">
       <c r="A212" s="1" t="s">
         <v>259</v>
       </c>
@@ -15323,7 +15322,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19">
       <c r="A213" s="1" t="s">
         <v>260</v>
       </c>
@@ -15382,7 +15381,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19">
       <c r="A214" s="1" t="s">
         <v>261</v>
       </c>
@@ -15441,7 +15440,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19">
       <c r="A215" s="1" t="s">
         <v>262</v>
       </c>
@@ -15500,7 +15499,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19">
       <c r="A216" s="1" t="s">
         <v>263</v>
       </c>
@@ -15559,7 +15558,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19">
       <c r="A217" s="1" t="s">
         <v>264</v>
       </c>
@@ -15618,7 +15617,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19">
       <c r="A218" s="1" t="s">
         <v>265</v>
       </c>
@@ -15677,7 +15676,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19">
       <c r="A219" s="1" t="s">
         <v>266</v>
       </c>
@@ -15736,7 +15735,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19">
       <c r="A220" s="1" t="s">
         <v>267</v>
       </c>
@@ -15795,7 +15794,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19">
       <c r="A221" s="1" t="s">
         <v>268</v>
       </c>
@@ -15854,7 +15853,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19">
       <c r="A222" s="1" t="s">
         <v>269</v>
       </c>
@@ -15913,7 +15912,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19">
       <c r="A223" s="1" t="s">
         <v>270</v>
       </c>
@@ -15972,7 +15971,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19">
       <c r="A224" s="1" t="s">
         <v>271</v>
       </c>
@@ -16031,7 +16030,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19">
       <c r="A225" s="1" t="s">
         <v>272</v>
       </c>
@@ -16090,7 +16089,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19">
       <c r="A226" s="1" t="s">
         <v>273</v>
       </c>
@@ -16149,7 +16148,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19">
       <c r="A227" s="1" t="s">
         <v>274</v>
       </c>
@@ -16208,7 +16207,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19">
       <c r="A228" s="1" t="s">
         <v>275</v>
       </c>
@@ -16267,7 +16266,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19">
       <c r="A229" s="1" t="s">
         <v>276</v>
       </c>
@@ -16326,7 +16325,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19">
       <c r="A230" s="1" t="s">
         <v>277</v>
       </c>
@@ -16385,7 +16384,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19">
       <c r="A231" s="1" t="s">
         <v>278</v>
       </c>
@@ -16444,7 +16443,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19">
       <c r="A232" s="1" t="s">
         <v>279</v>
       </c>
@@ -16503,7 +16502,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19">
       <c r="A233" s="1" t="s">
         <v>280</v>
       </c>
@@ -16562,7 +16561,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19">
       <c r="A234" s="1" t="s">
         <v>281</v>
       </c>
@@ -16621,7 +16620,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19">
       <c r="A235" s="1" t="s">
         <v>282</v>
       </c>
@@ -16680,7 +16679,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19">
       <c r="A236" s="1" t="s">
         <v>283</v>
       </c>
@@ -16739,7 +16738,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19">
       <c r="A237" s="1" t="s">
         <v>284</v>
       </c>
@@ -16798,7 +16797,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19">
       <c r="A238" s="1" t="s">
         <v>285</v>
       </c>
@@ -16857,7 +16856,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19">
       <c r="A239" s="1" t="s">
         <v>286</v>
       </c>
@@ -16916,7 +16915,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19">
       <c r="A240" s="1" t="s">
         <v>287</v>
       </c>
@@ -16975,7 +16974,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19">
       <c r="A241" s="1" t="s">
         <v>288</v>
       </c>
@@ -17034,7 +17033,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19">
       <c r="A242" s="1" t="s">
         <v>289</v>
       </c>
@@ -17093,7 +17092,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19">
       <c r="A243" s="1" t="s">
         <v>290</v>
       </c>
@@ -17152,7 +17151,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19">
       <c r="A244" s="1" t="s">
         <v>291</v>
       </c>
@@ -17211,7 +17210,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19">
       <c r="A245" s="1" t="s">
         <v>292</v>
       </c>
@@ -17270,7 +17269,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19">
       <c r="A246" s="1" t="s">
         <v>293</v>
       </c>
@@ -17329,7 +17328,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19">
       <c r="A247" s="1" t="s">
         <v>294</v>
       </c>
@@ -17388,7 +17387,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19">
       <c r="A248" s="1" t="s">
         <v>295</v>
       </c>
@@ -17447,7 +17446,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19">
       <c r="A249" s="1" t="s">
         <v>296</v>
       </c>
@@ -17506,7 +17505,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19">
       <c r="A250" s="1" t="s">
         <v>297</v>
       </c>
@@ -17565,7 +17564,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19">
       <c r="A251" s="1" t="s">
         <v>298</v>
       </c>
@@ -17624,7 +17623,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19">
       <c r="A252" s="1" t="s">
         <v>299</v>
       </c>
@@ -17683,7 +17682,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19">
       <c r="A253" s="1" t="s">
         <v>300</v>
       </c>
@@ -17742,7 +17741,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19">
       <c r="A254" s="1" t="s">
         <v>301</v>
       </c>
@@ -17801,7 +17800,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19">
       <c r="A255" s="1" t="s">
         <v>302</v>
       </c>
@@ -17860,7 +17859,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19">
       <c r="A256" s="1" t="s">
         <v>303</v>
       </c>
@@ -17919,7 +17918,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19">
       <c r="A257" s="1" t="s">
         <v>304</v>
       </c>
@@ -17978,7 +17977,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19">
       <c r="A258" s="1" t="s">
         <v>305</v>
       </c>
@@ -18037,7 +18036,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19">
       <c r="A259" s="1" t="s">
         <v>306</v>
       </c>
@@ -18096,7 +18095,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19">
       <c r="A260" s="1" t="s">
         <v>307</v>
       </c>
@@ -18155,7 +18154,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19">
       <c r="A261" s="1" t="s">
         <v>308</v>
       </c>
@@ -18214,7 +18213,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19">
       <c r="A262" s="1" t="s">
         <v>309</v>
       </c>
@@ -18273,7 +18272,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19">
       <c r="A263" s="1" t="s">
         <v>310</v>
       </c>
@@ -18332,7 +18331,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19">
       <c r="A264" s="1" t="s">
         <v>311</v>
       </c>
@@ -18391,7 +18390,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19">
       <c r="A265" s="1" t="s">
         <v>312</v>
       </c>
@@ -18450,7 +18449,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19">
       <c r="A266" s="1" t="s">
         <v>313</v>
       </c>
@@ -18509,7 +18508,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19">
       <c r="A267" s="1" t="s">
         <v>314</v>
       </c>
@@ -18568,7 +18567,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19">
       <c r="A268" s="1" t="s">
         <v>315</v>
       </c>
@@ -18627,7 +18626,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19">
       <c r="A269" s="1" t="s">
         <v>316</v>
       </c>
@@ -18686,7 +18685,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19">
       <c r="A270" s="1" t="s">
         <v>317</v>
       </c>
@@ -18745,7 +18744,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19">
       <c r="A271" s="1" t="s">
         <v>318</v>
       </c>
@@ -18804,7 +18803,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19">
       <c r="A272" s="1" t="s">
         <v>319</v>
       </c>
@@ -18863,7 +18862,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19">
       <c r="A273" s="1" t="s">
         <v>320</v>
       </c>
@@ -18922,7 +18921,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19">
       <c r="A274" s="1" t="s">
         <v>321</v>
       </c>
@@ -18981,7 +18980,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19">
       <c r="A275" s="1" t="s">
         <v>322</v>
       </c>
@@ -19040,7 +19039,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19">
       <c r="A276" s="1" t="s">
         <v>323</v>
       </c>
@@ -19099,7 +19098,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19">
       <c r="A277" s="1" t="s">
         <v>324</v>
       </c>
@@ -19158,7 +19157,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19">
       <c r="A278" s="1" t="s">
         <v>325</v>
       </c>
@@ -19217,7 +19216,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19">
       <c r="A279" s="1" t="s">
         <v>326</v>
       </c>
@@ -19276,7 +19275,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:19">
       <c r="A280" s="1" t="s">
         <v>327</v>
       </c>
@@ -19335,7 +19334,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19">
       <c r="A281" s="1" t="s">
         <v>328</v>
       </c>
@@ -19394,7 +19393,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19">
       <c r="A282" s="1" t="s">
         <v>329</v>
       </c>
@@ -19453,7 +19452,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19">
       <c r="A283" s="1" t="s">
         <v>330</v>
       </c>
@@ -19512,7 +19511,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19">
       <c r="A284" s="1" t="s">
         <v>331</v>
       </c>
@@ -19571,7 +19570,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:19">
       <c r="A285" s="1" t="s">
         <v>332</v>
       </c>
@@ -19630,7 +19629,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19">
       <c r="A286" s="1" t="s">
         <v>333</v>
       </c>
@@ -19689,7 +19688,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19">
       <c r="A287" s="1" t="s">
         <v>334</v>
       </c>
@@ -19748,7 +19747,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19">
       <c r="A288" s="1" t="s">
         <v>335</v>
       </c>
@@ -19807,7 +19806,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19">
       <c r="A289" s="1" t="s">
         <v>336</v>
       </c>
@@ -19866,7 +19865,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19">
       <c r="A290" s="1" t="s">
         <v>337</v>
       </c>
@@ -19925,7 +19924,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19">
       <c r="A291" s="1" t="s">
         <v>338</v>
       </c>
@@ -19984,7 +19983,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19">
       <c r="A292" s="1" t="s">
         <v>339</v>
       </c>
@@ -20043,7 +20042,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19">
       <c r="A293" s="1" t="s">
         <v>340</v>
       </c>
@@ -20102,7 +20101,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19">
       <c r="A294" s="1" t="s">
         <v>341</v>
       </c>
@@ -20161,7 +20160,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19">
       <c r="A295" s="1" t="s">
         <v>342</v>
       </c>
@@ -20220,7 +20219,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19">
       <c r="A296" s="1" t="s">
         <v>343</v>
       </c>
@@ -20279,7 +20278,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19">
       <c r="A297" s="1" t="s">
         <v>344</v>
       </c>
@@ -20338,7 +20337,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19">
       <c r="A298" s="1" t="s">
         <v>345</v>
       </c>
@@ -20397,7 +20396,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19">
       <c r="A299" s="1" t="s">
         <v>346</v>
       </c>
@@ -20456,7 +20455,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19">
       <c r="A300" s="1" t="s">
         <v>347</v>
       </c>
@@ -20515,7 +20514,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19">
       <c r="A301" s="1" t="s">
         <v>348</v>
       </c>
@@ -20574,7 +20573,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19">
       <c r="A302" s="1" t="s">
         <v>349</v>
       </c>
@@ -20633,7 +20632,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19">
       <c r="A303" s="1" t="s">
         <v>350</v>
       </c>
@@ -20692,7 +20691,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19">
       <c r="A304" s="1" t="s">
         <v>351</v>
       </c>
@@ -20751,7 +20750,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19">
       <c r="A305" s="1" t="s">
         <v>352</v>
       </c>
@@ -20810,7 +20809,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19">
       <c r="A306" s="1" t="s">
         <v>353</v>
       </c>
@@ -20869,7 +20868,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19">
       <c r="A307" s="1" t="s">
         <v>354</v>
       </c>
@@ -20928,7 +20927,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19">
       <c r="A308" s="1" t="s">
         <v>355</v>
       </c>
@@ -20987,7 +20986,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19">
       <c r="A309" s="1" t="s">
         <v>356</v>
       </c>
@@ -21046,7 +21045,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19">
       <c r="A310" s="1" t="s">
         <v>357</v>
       </c>
@@ -21105,7 +21104,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19">
       <c r="A311" s="1" t="s">
         <v>358</v>
       </c>
@@ -21164,7 +21163,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19">
       <c r="A312" s="1" t="s">
         <v>359</v>
       </c>
@@ -21223,7 +21222,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:19">
       <c r="A313" s="1" t="s">
         <v>360</v>
       </c>
@@ -21282,7 +21281,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:19">
       <c r="A314" s="1" t="s">
         <v>361</v>
       </c>
@@ -21341,7 +21340,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:19">
       <c r="A315" s="1" t="s">
         <v>362</v>
       </c>
@@ -21400,7 +21399,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:19">
       <c r="A316" s="1" t="s">
         <v>363</v>
       </c>
@@ -21459,7 +21458,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:19">
       <c r="A317" s="1" t="s">
         <v>364</v>
       </c>
@@ -21518,7 +21517,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:19">
       <c r="A318" s="1" t="s">
         <v>365</v>
       </c>
@@ -21577,7 +21576,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:19">
       <c r="A319" s="1" t="s">
         <v>366</v>
       </c>
@@ -21636,7 +21635,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:19">
       <c r="A320" s="1" t="s">
         <v>367</v>
       </c>
@@ -21695,7 +21694,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:19">
       <c r="A321" s="1" t="s">
         <v>368</v>
       </c>
@@ -21754,7 +21753,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:19">
       <c r="A322" s="1" t="s">
         <v>369</v>
       </c>
@@ -21813,7 +21812,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:19">
       <c r="A323" s="1" t="s">
         <v>370</v>
       </c>
@@ -21872,7 +21871,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:19">
       <c r="A324" s="1" t="s">
         <v>371</v>
       </c>
@@ -21931,7 +21930,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:19">
       <c r="A325" s="1" t="s">
         <v>372</v>
       </c>
@@ -21990,7 +21989,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:19">
       <c r="A326" s="1" t="s">
         <v>373</v>
       </c>
@@ -22049,7 +22048,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:19">
       <c r="A327" s="1" t="s">
         <v>374</v>
       </c>
@@ -22108,7 +22107,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:19">
       <c r="A328" s="1" t="s">
         <v>375</v>
       </c>
@@ -22167,7 +22166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:19">
       <c r="A329" s="1" t="s">
         <v>376</v>
       </c>
@@ -22226,7 +22225,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:19">
       <c r="A330" s="1" t="s">
         <v>377</v>
       </c>
@@ -22285,7 +22284,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:19">
       <c r="A331" s="1" t="s">
         <v>378</v>
       </c>
@@ -22344,7 +22343,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:19">
       <c r="A332" s="1" t="s">
         <v>379</v>
       </c>
@@ -22403,7 +22402,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:19">
       <c r="A333" s="1" t="s">
         <v>380</v>
       </c>
@@ -22462,7 +22461,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:19">
       <c r="A334" s="1" t="s">
         <v>381</v>
       </c>
@@ -22521,7 +22520,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:19">
       <c r="A335" s="1" t="s">
         <v>382</v>
       </c>
@@ -22580,7 +22579,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:19">
       <c r="A336" s="1" t="s">
         <v>383</v>
       </c>
@@ -22639,7 +22638,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:19">
       <c r="A337" s="1" t="s">
         <v>384</v>
       </c>
@@ -22698,7 +22697,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:19">
       <c r="A338" s="1" t="s">
         <v>385</v>
       </c>
@@ -22757,7 +22756,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:19">
       <c r="A339" s="1" t="s">
         <v>386</v>
       </c>
@@ -22816,7 +22815,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:19">
       <c r="A340" s="1" t="s">
         <v>387</v>
       </c>
@@ -22875,7 +22874,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:19">
       <c r="A341" s="1" t="s">
         <v>388</v>
       </c>
@@ -22934,7 +22933,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:19">
       <c r="A342" s="1" t="s">
         <v>389</v>
       </c>
@@ -22993,7 +22992,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:19">
       <c r="A343" s="1" t="s">
         <v>390</v>
       </c>
@@ -23052,7 +23051,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:19">
       <c r="A344" s="1" t="s">
         <v>391</v>
       </c>
@@ -23111,7 +23110,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:19">
       <c r="A345" s="1" t="s">
         <v>392</v>
       </c>
@@ -23170,7 +23169,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:19">
       <c r="A346" s="1" t="s">
         <v>393</v>
       </c>
@@ -23229,7 +23228,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:19">
       <c r="A347" s="1" t="s">
         <v>394</v>
       </c>
@@ -23288,7 +23287,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:19">
       <c r="A348" s="1" t="s">
         <v>395</v>
       </c>
@@ -23347,7 +23346,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:19">
       <c r="A349" s="1" t="s">
         <v>396</v>
       </c>
@@ -23406,7 +23405,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:19">
       <c r="A350" s="1" t="s">
         <v>397</v>
       </c>
@@ -23465,7 +23464,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:19">
       <c r="A351" s="1" t="s">
         <v>398</v>
       </c>
@@ -23524,7 +23523,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:19">
       <c r="A352" s="1" t="s">
         <v>399</v>
       </c>
@@ -23583,7 +23582,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:19">
       <c r="A353" s="1" t="s">
         <v>400</v>
       </c>
@@ -23642,7 +23641,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:19">
       <c r="A354" s="1" t="s">
         <v>401</v>
       </c>
@@ -23701,7 +23700,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:19">
       <c r="A355" s="1" t="s">
         <v>402</v>
       </c>
@@ -23760,7 +23759,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:19">
       <c r="A356" s="1" t="s">
         <v>403</v>
       </c>
@@ -23819,7 +23818,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:19">
       <c r="A357" s="1" t="s">
         <v>404</v>
       </c>
@@ -23878,7 +23877,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:19">
       <c r="A358" s="1" t="s">
         <v>405</v>
       </c>
@@ -23937,7 +23936,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:19">
       <c r="A359" s="1" t="s">
         <v>406</v>
       </c>
@@ -23996,7 +23995,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:19">
       <c r="A360" s="1" t="s">
         <v>407</v>
       </c>
@@ -24055,7 +24054,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:19">
       <c r="A361" s="1" t="s">
         <v>408</v>
       </c>
@@ -24114,7 +24113,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:19">
       <c r="A362" s="1" t="s">
         <v>409</v>
       </c>
@@ -24173,7 +24172,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:19">
       <c r="A363" s="1" t="s">
         <v>410</v>
       </c>
@@ -24232,7 +24231,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:19">
       <c r="A364" s="1" t="s">
         <v>411</v>
       </c>
@@ -24291,7 +24290,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:19">
       <c r="A365" s="1" t="s">
         <v>412</v>
       </c>
@@ -24350,7 +24349,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:19">
       <c r="A366" s="1" t="s">
         <v>413</v>
       </c>
@@ -24409,7 +24408,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:19">
       <c r="A367" s="1" t="s">
         <v>414</v>
       </c>
@@ -24468,7 +24467,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:19">
       <c r="A368" s="1" t="s">
         <v>415</v>
       </c>
@@ -24527,7 +24526,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:19">
       <c r="A369" s="1" t="s">
         <v>416</v>
       </c>
@@ -24586,7 +24585,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:19">
       <c r="A370" s="1" t="s">
         <v>417</v>
       </c>
@@ -24645,7 +24644,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:19">
       <c r="A371" s="1" t="s">
         <v>418</v>
       </c>
@@ -24704,7 +24703,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:19">
       <c r="A372" s="1" t="s">
         <v>419</v>
       </c>
@@ -24763,7 +24762,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:19">
       <c r="A373" s="1" t="s">
         <v>420</v>
       </c>
@@ -24822,7 +24821,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:19">
       <c r="A374" s="1" t="s">
         <v>421</v>
       </c>
@@ -24881,7 +24880,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:19">
       <c r="A375" s="1" t="s">
         <v>422</v>
       </c>
@@ -24940,7 +24939,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:19">
       <c r="A376" s="1" t="s">
         <v>423</v>
       </c>
@@ -24999,7 +24998,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:19">
       <c r="A377" s="1" t="s">
         <v>424</v>
       </c>
@@ -25058,7 +25057,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:19">
       <c r="A378" s="1" t="s">
         <v>425</v>
       </c>
@@ -25117,7 +25116,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:19">
       <c r="A379" s="1" t="s">
         <v>426</v>
       </c>
@@ -25176,7 +25175,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:19">
       <c r="A380" s="1" t="s">
         <v>427</v>
       </c>
@@ -25235,7 +25234,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:19">
       <c r="A381" s="1" t="s">
         <v>428</v>
       </c>
@@ -25294,7 +25293,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:19">
       <c r="A382" s="1" t="s">
         <v>429</v>
       </c>
@@ -25353,7 +25352,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:19">
       <c r="A383" s="1" t="s">
         <v>430</v>
       </c>
@@ -25412,7 +25411,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:19">
       <c r="A384" s="1" t="s">
         <v>431</v>
       </c>
@@ -25471,7 +25470,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:19">
       <c r="A385" s="1" t="s">
         <v>432</v>
       </c>
@@ -25530,7 +25529,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:19">
       <c r="A386" s="1" t="s">
         <v>433</v>
       </c>
@@ -25589,7 +25588,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:19">
       <c r="A387" s="1" t="s">
         <v>434</v>
       </c>
@@ -25648,7 +25647,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:19">
       <c r="A388" s="1" t="s">
         <v>435</v>
       </c>
@@ -25707,7 +25706,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:19">
       <c r="A389" s="1" t="s">
         <v>436</v>
       </c>
@@ -25766,7 +25765,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:19">
       <c r="A390" s="1" t="s">
         <v>437</v>
       </c>
@@ -25825,7 +25824,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:19">
       <c r="A391" s="1" t="s">
         <v>438</v>
       </c>
@@ -25884,7 +25883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:19">
       <c r="A392" s="1" t="s">
         <v>439</v>
       </c>
@@ -25943,7 +25942,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:19">
       <c r="A393" s="1" t="s">
         <v>440</v>
       </c>
@@ -26002,7 +26001,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:19">
       <c r="A394" s="1" t="s">
         <v>441</v>
       </c>
@@ -26061,7 +26060,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:19">
       <c r="A395" s="1" t="s">
         <v>442</v>
       </c>
@@ -26120,7 +26119,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:19">
       <c r="A396" s="1" t="s">
         <v>443</v>
       </c>
@@ -26179,7 +26178,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:19">
       <c r="A397" s="1" t="s">
         <v>444</v>
       </c>
@@ -26238,7 +26237,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:19">
       <c r="A398" s="1" t="s">
         <v>445</v>
       </c>
@@ -26297,7 +26296,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:19">
       <c r="A399" s="1" t="s">
         <v>446</v>
       </c>
@@ -26356,7 +26355,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:19">
       <c r="A400" s="1" t="s">
         <v>447</v>
       </c>
@@ -26415,7 +26414,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:19">
       <c r="A401" s="1" t="s">
         <v>448</v>
       </c>
@@ -26474,7 +26473,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:19">
       <c r="A402" s="1" t="s">
         <v>449</v>
       </c>
@@ -26533,7 +26532,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:19">
       <c r="A403" s="1" t="s">
         <v>450</v>
       </c>
@@ -26592,7 +26591,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:19">
       <c r="A404" s="1" t="s">
         <v>451</v>
       </c>
@@ -26651,7 +26650,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:19">
       <c r="A405" s="1" t="s">
         <v>452</v>
       </c>
@@ -26710,7 +26709,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:19">
       <c r="A406" s="1" t="s">
         <v>453</v>
       </c>
@@ -26769,7 +26768,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:19">
       <c r="A407" s="1" t="s">
         <v>454</v>
       </c>
@@ -26828,7 +26827,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:19">
       <c r="A408" s="1" t="s">
         <v>455</v>
       </c>
@@ -26887,7 +26886,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:19">
       <c r="A409" s="1" t="s">
         <v>456</v>
       </c>
@@ -26946,7 +26945,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:19">
       <c r="A410" s="1" t="s">
         <v>457</v>
       </c>
@@ -27005,7 +27004,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:19">
       <c r="A411" s="1" t="s">
         <v>458</v>
       </c>
@@ -27064,7 +27063,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:19">
       <c r="A412" s="1" t="s">
         <v>459</v>
       </c>
@@ -27123,7 +27122,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:19">
       <c r="A413" s="1" t="s">
         <v>460</v>
       </c>
@@ -27182,7 +27181,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:19">
       <c r="A414" s="1" t="s">
         <v>461</v>
       </c>
@@ -27241,7 +27240,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:19">
       <c r="A415" s="1" t="s">
         <v>462</v>
       </c>
@@ -27300,7 +27299,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:19">
       <c r="A416" s="1" t="s">
         <v>463</v>
       </c>
@@ -27359,7 +27358,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:19">
       <c r="A417" s="1" t="s">
         <v>464</v>
       </c>
@@ -27418,7 +27417,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:19">
       <c r="A418" s="1" t="s">
         <v>465</v>
       </c>
@@ -27477,7 +27476,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:19">
       <c r="A419" s="1" t="s">
         <v>466</v>
       </c>
@@ -27536,7 +27535,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:19">
       <c r="A420" s="1" t="s">
         <v>467</v>
       </c>
@@ -27595,7 +27594,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:19">
       <c r="A421" s="1" t="s">
         <v>468</v>
       </c>
@@ -27654,7 +27653,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:19">
       <c r="A422" s="1" t="s">
         <v>469</v>
       </c>
@@ -27713,7 +27712,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:19">
       <c r="A423" s="1" t="s">
         <v>470</v>
       </c>
@@ -27772,7 +27771,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:19">
       <c r="A424" s="1" t="s">
         <v>471</v>
       </c>
@@ -27831,7 +27830,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:19">
       <c r="A425" s="1" t="s">
         <v>472</v>
       </c>
@@ -27890,7 +27889,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:19">
       <c r="A426" s="1" t="s">
         <v>473</v>
       </c>
@@ -27949,7 +27948,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:19">
       <c r="A427" s="1" t="s">
         <v>474</v>
       </c>
@@ -28008,7 +28007,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:19">
       <c r="A428" s="1" t="s">
         <v>475</v>
       </c>
@@ -28067,7 +28066,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:19">
       <c r="A429" s="1" t="s">
         <v>476</v>
       </c>
@@ -28126,7 +28125,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:19">
       <c r="A430" s="1" t="s">
         <v>477</v>
       </c>
@@ -28185,7 +28184,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:19">
       <c r="A431" s="1" t="s">
         <v>478</v>
       </c>
@@ -28244,7 +28243,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:19">
       <c r="A432" s="1" t="s">
         <v>479</v>
       </c>
@@ -28303,7 +28302,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:19">
       <c r="A433" s="1" t="s">
         <v>480</v>
       </c>
@@ -28362,7 +28361,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:19">
       <c r="A434" s="1" t="s">
         <v>481</v>
       </c>
@@ -28421,7 +28420,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:19">
       <c r="A435" s="1" t="s">
         <v>482</v>
       </c>
@@ -28480,7 +28479,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:19">
       <c r="A436" s="1" t="s">
         <v>483</v>
       </c>
@@ -28539,7 +28538,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:19">
       <c r="A437" s="1" t="s">
         <v>484</v>
       </c>
@@ -28598,7 +28597,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:19">
       <c r="A438" s="1" t="s">
         <v>485</v>
       </c>
@@ -28657,7 +28656,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:19">
       <c r="A439" s="1" t="s">
         <v>486</v>
       </c>
@@ -28716,7 +28715,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:19">
       <c r="A440" s="1" t="s">
         <v>487</v>
       </c>
@@ -28775,7 +28774,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:19">
       <c r="A441" s="1" t="s">
         <v>488</v>
       </c>
@@ -28834,7 +28833,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:19">
       <c r="A442" s="1" t="s">
         <v>489</v>
       </c>
@@ -28893,7 +28892,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:19">
       <c r="A443" s="1" t="s">
         <v>490</v>
       </c>
@@ -28952,7 +28951,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:19">
       <c r="A444" s="1" t="s">
         <v>491</v>
       </c>
@@ -29011,7 +29010,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:19">
       <c r="A445" s="1" t="s">
         <v>492</v>
       </c>
@@ -29070,7 +29069,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:19">
       <c r="A446" s="1" t="s">
         <v>493</v>
       </c>
@@ -29129,7 +29128,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:19">
       <c r="A447" s="1" t="s">
         <v>494</v>
       </c>
@@ -29188,7 +29187,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:19">
       <c r="A448" s="1" t="s">
         <v>495</v>
       </c>
@@ -29247,7 +29246,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:19">
       <c r="A449" s="1" t="s">
         <v>496</v>
       </c>
@@ -29306,7 +29305,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:19">
       <c r="A450" s="1" t="s">
         <v>497</v>
       </c>
@@ -29365,7 +29364,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:19">
       <c r="A451" s="1" t="s">
         <v>498</v>
       </c>
@@ -29424,7 +29423,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:19">
       <c r="A452" s="1" t="s">
         <v>499</v>
       </c>
@@ -29483,7 +29482,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:19">
       <c r="A453" s="1" t="s">
         <v>500</v>
       </c>
@@ -29542,7 +29541,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:19">
       <c r="A454" s="1" t="s">
         <v>501</v>
       </c>
@@ -29601,7 +29600,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:19">
       <c r="A455" s="1" t="s">
         <v>502</v>
       </c>
@@ -29660,7 +29659,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:19">
       <c r="A456" s="1" t="s">
         <v>503</v>
       </c>
@@ -29719,7 +29718,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:19">
       <c r="A457" s="1" t="s">
         <v>504</v>
       </c>
@@ -29778,7 +29777,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:19">
       <c r="A458" s="1" t="s">
         <v>505</v>
       </c>
@@ -29837,7 +29836,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:19">
       <c r="A459" s="1" t="s">
         <v>506</v>
       </c>
@@ -29896,7 +29895,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:19">
       <c r="A460" s="1" t="s">
         <v>507</v>
       </c>
@@ -29955,7 +29954,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:19">
       <c r="A461" s="1" t="s">
         <v>508</v>
       </c>
@@ -30014,7 +30013,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:19">
       <c r="A462" s="1" t="s">
         <v>509</v>
       </c>
@@ -30073,7 +30072,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:19">
       <c r="A463" s="1" t="s">
         <v>510</v>
       </c>
@@ -30132,7 +30131,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:19">
       <c r="A464" s="1" t="s">
         <v>511</v>
       </c>
@@ -30191,7 +30190,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:19">
       <c r="A465" s="1" t="s">
         <v>512</v>
       </c>
@@ -30250,7 +30249,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:19">
       <c r="A466" s="1" t="s">
         <v>513</v>
       </c>
@@ -30309,7 +30308,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:19">
       <c r="A467" s="1" t="s">
         <v>514</v>
       </c>
@@ -30368,7 +30367,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:19">
       <c r="A468" s="1" t="s">
         <v>515</v>
       </c>
@@ -30427,7 +30426,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:19">
       <c r="A469" s="1" t="s">
         <v>516</v>
       </c>
@@ -30486,7 +30485,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:19">
       <c r="A470" s="1" t="s">
         <v>517</v>
       </c>
@@ -30545,7 +30544,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:19">
       <c r="A471" s="1" t="s">
         <v>518</v>
       </c>
@@ -30604,7 +30603,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:19">
       <c r="A472" s="1" t="s">
         <v>519</v>
       </c>
@@ -30663,7 +30662,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:19">
       <c r="A473" s="1" t="s">
         <v>520</v>
       </c>
@@ -30722,7 +30721,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:19">
       <c r="A474" s="1" t="s">
         <v>521</v>
       </c>
@@ -30781,7 +30780,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:19">
       <c r="A475" s="1" t="s">
         <v>522</v>
       </c>
@@ -30840,7 +30839,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:19">
       <c r="A476" s="1" t="s">
         <v>523</v>
       </c>
@@ -30899,7 +30898,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:19">
       <c r="A477" s="1" t="s">
         <v>524</v>
       </c>
@@ -30958,7 +30957,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:19">
       <c r="A478" s="1" t="s">
         <v>525</v>
       </c>
@@ -31017,7 +31016,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:19">
       <c r="A479" s="1" t="s">
         <v>526</v>
       </c>
@@ -31076,7 +31075,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:19">
       <c r="A480" s="1" t="s">
         <v>527</v>
       </c>
@@ -31135,7 +31134,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:19">
       <c r="A481" s="1" t="s">
         <v>528</v>
       </c>
@@ -31194,7 +31193,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:19">
       <c r="A482" s="1" t="s">
         <v>529</v>
       </c>
@@ -31253,7 +31252,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:19">
       <c r="A483" s="1" t="s">
         <v>530</v>
       </c>
@@ -31312,7 +31311,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:19">
       <c r="A484" s="1" t="s">
         <v>531</v>
       </c>
@@ -31371,7 +31370,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:19">
       <c r="A485" s="1" t="s">
         <v>532</v>
       </c>
@@ -31430,7 +31429,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:19">
       <c r="A486" s="1" t="s">
         <v>533</v>
       </c>
@@ -31489,7 +31488,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:19">
       <c r="A487" s="1" t="s">
         <v>534</v>
       </c>
@@ -31548,7 +31547,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:19">
       <c r="A488" s="1" t="s">
         <v>535</v>
       </c>
@@ -31607,7 +31606,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:19">
       <c r="A489" s="1" t="s">
         <v>536</v>
       </c>
@@ -31666,7 +31665,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:19">
       <c r="A490" s="1" t="s">
         <v>537</v>
       </c>
@@ -31725,7 +31724,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:19">
       <c r="A491" s="1" t="s">
         <v>538</v>
       </c>
@@ -31784,7 +31783,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:19">
       <c r="A492" s="1" t="s">
         <v>539</v>
       </c>
@@ -31843,7 +31842,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:19">
       <c r="A493" s="1" t="s">
         <v>540</v>
       </c>
@@ -31902,7 +31901,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:19">
       <c r="A494" s="1" t="s">
         <v>541</v>
       </c>
@@ -31961,7 +31960,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:19">
       <c r="A495" s="1" t="s">
         <v>542</v>
       </c>
@@ -32020,7 +32019,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:19">
       <c r="A496" s="1" t="s">
         <v>543</v>
       </c>
@@ -32079,7 +32078,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:19">
       <c r="A497" s="1" t="s">
         <v>544</v>
       </c>
@@ -32138,7 +32137,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:19">
       <c r="A498" s="1" t="s">
         <v>545</v>
       </c>
@@ -32197,7 +32196,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:19">
       <c r="A499" s="1" t="s">
         <v>546</v>
       </c>
@@ -32256,7 +32255,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:19">
       <c r="A500" s="1" t="s">
         <v>547</v>
       </c>
@@ -32315,7 +32314,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:19">
       <c r="A501" s="1" t="s">
         <v>548</v>
       </c>
@@ -32374,7 +32373,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:19">
       <c r="A502" s="1" t="s">
         <v>549</v>
       </c>
@@ -32433,7 +32432,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:19">
       <c r="A503" s="1" t="s">
         <v>550</v>
       </c>
@@ -32492,7 +32491,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:19">
       <c r="A504" s="1" t="s">
         <v>551</v>
       </c>
@@ -32551,7 +32550,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:19">
       <c r="A505" s="1" t="s">
         <v>552</v>
       </c>
@@ -32610,7 +32609,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:19">
       <c r="A506" s="1" t="s">
         <v>553</v>
       </c>
@@ -32669,7 +32668,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:19">
       <c r="A507" s="1" t="s">
         <v>554</v>
       </c>
@@ -32728,7 +32727,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:19">
       <c r="A508" s="1" t="s">
         <v>555</v>
       </c>
@@ -32787,7 +32786,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:19">
       <c r="A509" s="1" t="s">
         <v>556</v>
       </c>
@@ -32846,7 +32845,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:19">
       <c r="A510" s="1" t="s">
         <v>557</v>
       </c>
@@ -32905,7 +32904,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:19">
       <c r="A511" s="1" t="s">
         <v>558</v>
       </c>
@@ -32964,7 +32963,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:19">
       <c r="A512" s="1" t="s">
         <v>559</v>
       </c>
@@ -33023,7 +33022,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:19">
       <c r="A513" s="1" t="s">
         <v>560</v>
       </c>
@@ -33082,7 +33081,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:19">
       <c r="A514" s="1" t="s">
         <v>561</v>
       </c>
@@ -33141,7 +33140,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:19">
       <c r="A515" s="1" t="s">
         <v>562</v>
       </c>
@@ -33200,7 +33199,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:19">
       <c r="A516" s="1" t="s">
         <v>563</v>
       </c>
@@ -33259,7 +33258,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:19">
       <c r="A517" s="1" t="s">
         <v>564</v>
       </c>
@@ -33318,7 +33317,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:19">
       <c r="A518" s="1" t="s">
         <v>565</v>
       </c>
@@ -33377,7 +33376,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:19">
       <c r="A519" s="1" t="s">
         <v>566</v>
       </c>
@@ -33436,7 +33435,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:19">
       <c r="A520" s="1" t="s">
         <v>567</v>
       </c>
@@ -33495,7 +33494,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:19">
       <c r="A521" s="1" t="s">
         <v>568</v>
       </c>
@@ -33554,7 +33553,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:19">
       <c r="A522" s="1" t="s">
         <v>569</v>
       </c>
@@ -33613,7 +33612,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:19">
       <c r="A523" s="1" t="s">
         <v>570</v>
       </c>
@@ -33672,7 +33671,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:19">
       <c r="A524" s="1" t="s">
         <v>571</v>
       </c>
@@ -33731,7 +33730,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:19">
       <c r="A525" s="1" t="s">
         <v>572</v>
       </c>
@@ -33790,7 +33789,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:19">
       <c r="A526" s="1" t="s">
         <v>573</v>
       </c>
@@ -33849,7 +33848,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:19">
       <c r="A527" s="1" t="s">
         <v>574</v>
       </c>
@@ -33908,7 +33907,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:19">
       <c r="A528" s="1" t="s">
         <v>575</v>
       </c>
@@ -33967,7 +33966,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:19">
       <c r="A529" s="1" t="s">
         <v>576</v>
       </c>
@@ -34026,7 +34025,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="530" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:19">
       <c r="A530" s="1" t="s">
         <v>577</v>
       </c>
@@ -34085,7 +34084,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="531" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:19">
       <c r="A531" s="1" t="s">
         <v>578</v>
       </c>
@@ -34144,7 +34143,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="532" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:19">
       <c r="A532" s="1" t="s">
         <v>579</v>
       </c>
@@ -34203,7 +34202,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="533" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:19">
       <c r="A533" s="1" t="s">
         <v>580</v>
       </c>
@@ -34262,7 +34261,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:19">
       <c r="A534" s="1" t="s">
         <v>581</v>
       </c>
@@ -34321,7 +34320,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:19">
       <c r="A535" s="1" t="s">
         <v>582</v>
       </c>
@@ -34380,7 +34379,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="536" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:19">
       <c r="A536" s="1" t="s">
         <v>583</v>
       </c>
@@ -34439,7 +34438,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="537" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:19">
       <c r="A537" s="1" t="s">
         <v>584</v>
       </c>
@@ -34498,7 +34497,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="538" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:19">
       <c r="A538" s="1" t="s">
         <v>585</v>
       </c>
@@ -34557,7 +34556,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="539" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:19">
       <c r="A539" s="1" t="s">
         <v>586</v>
       </c>
@@ -34616,7 +34615,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="540" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:19">
       <c r="A540" s="1" t="s">
         <v>587</v>
       </c>
@@ -34675,7 +34674,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="541" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:19">
       <c r="A541" s="1" t="s">
         <v>588</v>
       </c>
@@ -34734,7 +34733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:19">
       <c r="A542" s="1" t="s">
         <v>589</v>
       </c>
@@ -34793,7 +34792,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="543" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:19">
       <c r="A543" s="1" t="s">
         <v>590</v>
       </c>
@@ -34852,7 +34851,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="544" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:19">
       <c r="A544" s="1" t="s">
         <v>591</v>
       </c>
@@ -34911,7 +34910,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="545" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:19">
       <c r="A545" s="1" t="s">
         <v>592</v>
       </c>
@@ -34970,7 +34969,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="546" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:19">
       <c r="A546" s="1" t="s">
         <v>593</v>
       </c>
@@ -35029,7 +35028,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="547" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:19">
       <c r="A547" s="1" t="s">
         <v>594</v>
       </c>
@@ -35088,7 +35087,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="548" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:19">
       <c r="A548" s="1" t="s">
         <v>595</v>
       </c>
@@ -35147,7 +35146,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="549" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:19">
       <c r="A549" s="1" t="s">
         <v>596</v>
       </c>
@@ -35206,7 +35205,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="550" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:19">
       <c r="A550" s="1" t="s">
         <v>597</v>
       </c>
@@ -35265,7 +35264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="551" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:19">
       <c r="A551" s="1" t="s">
         <v>598</v>
       </c>
@@ -35324,7 +35323,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="552" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:19">
       <c r="A552" s="1" t="s">
         <v>599</v>
       </c>
@@ -35383,7 +35382,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="553" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:19">
       <c r="A553" s="1" t="s">
         <v>600</v>
       </c>
@@ -35442,7 +35441,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="554" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:19">
       <c r="A554" s="1" t="s">
         <v>601</v>
       </c>
@@ -35501,7 +35500,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="555" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:19">
       <c r="A555" s="1" t="s">
         <v>602</v>
       </c>
@@ -35560,7 +35559,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="556" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:19">
       <c r="A556" s="1" t="s">
         <v>603</v>
       </c>
@@ -35619,7 +35618,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="557" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:19">
       <c r="A557" s="1" t="s">
         <v>604</v>
       </c>
@@ -35678,7 +35677,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="558" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:19">
       <c r="A558" s="1" t="s">
         <v>605</v>
       </c>
@@ -35737,7 +35736,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="559" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:19">
       <c r="A559" s="1" t="s">
         <v>606</v>
       </c>
@@ -35796,7 +35795,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="560" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:19">
       <c r="A560" s="1" t="s">
         <v>607</v>
       </c>
@@ -35855,7 +35854,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:19">
       <c r="A561" s="1" t="s">
         <v>608</v>
       </c>
@@ -35914,7 +35913,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="562" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:19">
       <c r="A562" s="1" t="s">
         <v>609</v>
       </c>
@@ -35973,7 +35972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:19">
       <c r="A563" s="1" t="s">
         <v>610</v>
       </c>
@@ -36032,7 +36031,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="564" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:19">
       <c r="A564" s="1" t="s">
         <v>611</v>
       </c>
@@ -36091,7 +36090,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="565" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:19">
       <c r="A565" s="1" t="s">
         <v>612</v>
       </c>
@@ -36150,7 +36149,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:19">
       <c r="A566" s="1" t="s">
         <v>613</v>
       </c>
@@ -36209,7 +36208,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:19">
       <c r="A567" s="1" t="s">
         <v>614</v>
       </c>
@@ -36268,7 +36267,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:19">
       <c r="A568" s="1" t="s">
         <v>615</v>
       </c>
@@ -36327,7 +36326,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:19">
       <c r="A569" s="1" t="s">
         <v>616</v>
       </c>
@@ -36386,7 +36385,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:19">
       <c r="A570" s="1" t="s">
         <v>617</v>
       </c>
@@ -36445,7 +36444,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="571" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:19">
       <c r="A571" s="1" t="s">
         <v>618</v>
       </c>
@@ -36504,7 +36503,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="572" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:19">
       <c r="A572" s="1" t="s">
         <v>619</v>
       </c>
@@ -36563,7 +36562,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="573" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:19">
       <c r="A573" s="1" t="s">
         <v>620</v>
       </c>
@@ -36622,7 +36621,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="574" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:19">
       <c r="A574" s="1" t="s">
         <v>621</v>
       </c>
@@ -36681,7 +36680,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:19">
       <c r="A575" s="1" t="s">
         <v>622</v>
       </c>
@@ -36740,7 +36739,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:19">
       <c r="A576" s="1" t="s">
         <v>623</v>
       </c>
@@ -36799,7 +36798,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="577" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:19">
       <c r="A577" s="1" t="s">
         <v>624</v>
       </c>
@@ -36858,7 +36857,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="578" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:19">
       <c r="A578" s="1" t="s">
         <v>625</v>
       </c>
@@ -36917,7 +36916,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="579" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:19">
       <c r="A579" s="1" t="s">
         <v>626</v>
       </c>
@@ -36976,7 +36975,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="580" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:19">
       <c r="A580" s="1" t="s">
         <v>627</v>
       </c>
@@ -37035,7 +37034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:19">
       <c r="A581" s="1" t="s">
         <v>628</v>
       </c>
@@ -37094,7 +37093,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="582" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:19">
       <c r="A582" s="1" t="s">
         <v>629</v>
       </c>
@@ -37153,7 +37152,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="583" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:19">
       <c r="A583" s="1" t="s">
         <v>630</v>
       </c>
@@ -37212,7 +37211,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="584" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:19">
       <c r="A584" s="1" t="s">
         <v>631</v>
       </c>
@@ -37271,7 +37270,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="585" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:19">
       <c r="A585" s="1" t="s">
         <v>632</v>
       </c>
@@ -37330,7 +37329,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="586" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:19">
       <c r="A586" s="1" t="s">
         <v>633</v>
       </c>
@@ -37389,7 +37388,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="587" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:19">
       <c r="A587" s="1" t="s">
         <v>634</v>
       </c>
@@ -37448,7 +37447,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="588" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:19">
       <c r="A588" s="1" t="s">
         <v>635</v>
       </c>
@@ -37507,7 +37506,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="589" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:19">
       <c r="A589" s="1" t="s">
         <v>636</v>
       </c>
@@ -37566,7 +37565,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="590" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:19">
       <c r="A590" s="1" t="s">
         <v>637</v>
       </c>
@@ -37625,7 +37624,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="591" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:19">
       <c r="A591" s="1" t="s">
         <v>638</v>
       </c>
@@ -37684,7 +37683,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="592" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:19">
       <c r="A592" s="1" t="s">
         <v>639</v>
       </c>
@@ -37743,7 +37742,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="593" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:19">
       <c r="A593" s="1" t="s">
         <v>640</v>
       </c>
@@ -37802,7 +37801,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="594" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:19">
       <c r="A594" s="1" t="s">
         <v>641</v>
       </c>
@@ -37861,7 +37860,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="595" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:19">
       <c r="A595" s="1" t="s">
         <v>642</v>
       </c>
@@ -37920,7 +37919,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="596" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:19">
       <c r="A596" s="1" t="s">
         <v>643</v>
       </c>
@@ -37979,7 +37978,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="597" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:19">
       <c r="A597" s="1" t="s">
         <v>644</v>
       </c>
@@ -38038,7 +38037,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="598" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:19">
       <c r="A598" s="1" t="s">
         <v>645</v>
       </c>
@@ -38097,7 +38096,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:19">
       <c r="A599" s="1" t="s">
         <v>646</v>
       </c>
@@ -38156,7 +38155,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="600" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:19">
       <c r="A600" s="1" t="s">
         <v>647</v>
       </c>
@@ -38215,7 +38214,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:19">
       <c r="A601" s="1" t="s">
         <v>648</v>
       </c>
@@ -38274,7 +38273,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:19">
       <c r="A602" s="1" t="s">
         <v>649</v>
       </c>
@@ -38333,7 +38332,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="603" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:19">
       <c r="A603" s="1" t="s">
         <v>650</v>
       </c>
@@ -38392,7 +38391,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="604" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:19">
       <c r="A604" s="1" t="s">
         <v>651</v>
       </c>
@@ -38451,7 +38450,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="605" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:19">
       <c r="A605" s="1" t="s">
         <v>652</v>
       </c>
@@ -38510,7 +38509,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="606" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:19">
       <c r="A606" s="1" t="s">
         <v>653</v>
       </c>
@@ -38569,7 +38568,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:19">
       <c r="A607" s="1" t="s">
         <v>654</v>
       </c>
@@ -38628,7 +38627,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="608" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:19">
       <c r="A608" s="1" t="s">
         <v>655</v>
       </c>
@@ -38687,7 +38686,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="609" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:19">
       <c r="A609" s="1" t="s">
         <v>656</v>
       </c>
@@ -38746,7 +38745,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="610" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:19">
       <c r="A610" s="1" t="s">
         <v>657</v>
       </c>
@@ -38805,7 +38804,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="611" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:19">
       <c r="A611" s="1" t="s">
         <v>658</v>
       </c>
@@ -38864,7 +38863,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="612" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:19">
       <c r="A612" s="1" t="s">
         <v>659</v>
       </c>
@@ -38923,7 +38922,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="613" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:19">
       <c r="A613" s="1" t="s">
         <v>660</v>
       </c>
@@ -38982,7 +38981,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="614" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:19">
       <c r="A614" s="1" t="s">
         <v>661</v>
       </c>
@@ -39041,7 +39040,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="615" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:19">
       <c r="A615" s="1" t="s">
         <v>662</v>
       </c>
@@ -39100,7 +39099,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="616" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:19">
       <c r="A616" s="1" t="s">
         <v>663</v>
       </c>
@@ -39159,7 +39158,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="617" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:19">
       <c r="A617" s="1" t="s">
         <v>664</v>
       </c>
@@ -39218,7 +39217,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="618" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:19">
       <c r="A618" s="1" t="s">
         <v>665</v>
       </c>
@@ -39277,7 +39276,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="619" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:19">
       <c r="A619" s="1" t="s">
         <v>666</v>
       </c>
@@ -39336,7 +39335,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="620" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:19">
       <c r="A620" s="1" t="s">
         <v>667</v>
       </c>
@@ -39395,7 +39394,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="621" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:19">
       <c r="A621" s="1" t="s">
         <v>668</v>
       </c>
@@ -39454,7 +39453,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="622" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:19">
       <c r="A622" s="1" t="s">
         <v>669</v>
       </c>
@@ -39513,7 +39512,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="623" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:19">
       <c r="A623" s="1" t="s">
         <v>670</v>
       </c>
@@ -39572,7 +39571,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="624" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:19">
       <c r="A624" s="1" t="s">
         <v>671</v>
       </c>
@@ -39631,7 +39630,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="625" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:19">
       <c r="A625" s="1" t="s">
         <v>672</v>
       </c>
@@ -39690,7 +39689,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="626" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:19">
       <c r="A626" s="1" t="s">
         <v>673</v>
       </c>
@@ -39749,7 +39748,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="627" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:19">
       <c r="A627" s="1" t="s">
         <v>674</v>
       </c>
@@ -39808,7 +39807,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="628" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:19">
       <c r="A628" s="1" t="s">
         <v>675</v>
       </c>
@@ -39867,7 +39866,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="629" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:19">
       <c r="A629" s="1" t="s">
         <v>676</v>
       </c>
@@ -39926,7 +39925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:19">
       <c r="A630" s="1" t="s">
         <v>677</v>
       </c>
@@ -39985,7 +39984,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="631" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:19">
       <c r="A631" s="1" t="s">
         <v>678</v>
       </c>
@@ -40044,7 +40043,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="632" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:19">
       <c r="A632" s="1" t="s">
         <v>679</v>
       </c>
@@ -40103,7 +40102,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="633" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:19">
       <c r="A633" s="1" t="s">
         <v>680</v>
       </c>
@@ -40162,7 +40161,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="634" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:19">
       <c r="A634" s="1" t="s">
         <v>681</v>
       </c>
@@ -40221,7 +40220,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="635" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:19">
       <c r="A635" s="1" t="s">
         <v>682</v>
       </c>
@@ -40280,7 +40279,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="636" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:19">
       <c r="A636" s="1" t="s">
         <v>683</v>
       </c>
@@ -40339,7 +40338,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="637" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:19">
       <c r="A637" s="1" t="s">
         <v>684</v>
       </c>
@@ -40398,7 +40397,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="638" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:19">
       <c r="A638" s="1" t="s">
         <v>685</v>
       </c>
@@ -40457,7 +40456,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="639" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:19">
       <c r="A639" s="1" t="s">
         <v>686</v>
       </c>
@@ -40516,7 +40515,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="640" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:19">
       <c r="A640" s="1" t="s">
         <v>687</v>
       </c>
@@ -40575,7 +40574,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="641" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:19">
       <c r="A641" s="1" t="s">
         <v>688</v>
       </c>
@@ -40634,7 +40633,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="642" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:19">
       <c r="A642" s="1" t="s">
         <v>689</v>
       </c>
@@ -40693,7 +40692,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="643" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:19">
       <c r="A643" s="1" t="s">
         <v>690</v>
       </c>
@@ -40752,7 +40751,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="644" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:19">
       <c r="A644" s="1" t="s">
         <v>691</v>
       </c>
@@ -40811,7 +40810,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="645" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:19">
       <c r="A645" s="1" t="s">
         <v>692</v>
       </c>
@@ -40870,7 +40869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:19">
       <c r="A646" s="1" t="s">
         <v>693</v>
       </c>
@@ -40929,7 +40928,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="647" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:19">
       <c r="A647" s="1" t="s">
         <v>694</v>
       </c>
@@ -40988,7 +40987,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="648" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:19">
       <c r="A648" s="1" t="s">
         <v>695</v>
       </c>
@@ -41047,7 +41046,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="649" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:19">
       <c r="A649" s="1" t="s">
         <v>696</v>
       </c>
@@ -41106,7 +41105,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="650" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:19">
       <c r="A650" s="1" t="s">
         <v>697</v>
       </c>
@@ -41165,7 +41164,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="651" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:19">
       <c r="A651" s="1" t="s">
         <v>698</v>
       </c>
@@ -41224,7 +41223,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="652" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:19">
       <c r="A652" s="1" t="s">
         <v>699</v>
       </c>
@@ -41283,7 +41282,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="653" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:19">
       <c r="A653" s="1" t="s">
         <v>700</v>
       </c>
@@ -41342,7 +41341,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="654" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:19">
       <c r="A654" s="1" t="s">
         <v>701</v>
       </c>
@@ -41401,7 +41400,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="655" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:19">
       <c r="A655" s="1" t="s">
         <v>702</v>
       </c>
@@ -41460,7 +41459,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="656" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:19">
       <c r="A656" s="1" t="s">
         <v>703</v>
       </c>
@@ -41519,7 +41518,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="657" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:19">
       <c r="A657" s="1" t="s">
         <v>704</v>
       </c>
@@ -41578,7 +41577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="658" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:19">
       <c r="A658" s="1" t="s">
         <v>705</v>
       </c>
@@ -41637,7 +41636,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="659" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:19">
       <c r="A659" s="1" t="s">
         <v>706</v>
       </c>
@@ -41696,7 +41695,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="660" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:19">
       <c r="A660" s="1" t="s">
         <v>707</v>
       </c>
@@ -41755,7 +41754,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="661" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:19">
       <c r="A661" s="1" t="s">
         <v>708</v>
       </c>
@@ -41814,7 +41813,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="662" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:19">
       <c r="A662" s="1" t="s">
         <v>709</v>
       </c>
@@ -41873,7 +41872,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="663" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:19">
       <c r="A663" s="1" t="s">
         <v>710</v>
       </c>
@@ -41932,7 +41931,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="664" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:19">
       <c r="A664" s="1" t="s">
         <v>711</v>
       </c>
@@ -41991,7 +41990,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="665" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:19">
       <c r="A665" s="1" t="s">
         <v>712</v>
       </c>
@@ -42050,7 +42049,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="666" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:19">
       <c r="A666" s="1" t="s">
         <v>713</v>
       </c>
@@ -42109,7 +42108,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="667" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:19">
       <c r="A667" s="1" t="s">
         <v>714</v>
       </c>
@@ -42168,7 +42167,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="668" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:19">
       <c r="A668" s="1" t="s">
         <v>715</v>
       </c>
@@ -42227,7 +42226,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="669" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:19">
       <c r="A669" s="1" t="s">
         <v>716</v>
       </c>
@@ -42286,7 +42285,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="670" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:19">
       <c r="A670" s="1" t="s">
         <v>717</v>
       </c>
@@ -42345,7 +42344,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="671" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:19">
       <c r="A671" s="1" t="s">
         <v>718</v>
       </c>
@@ -42404,7 +42403,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="672" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:19">
       <c r="A672" s="1" t="s">
         <v>719</v>
       </c>
@@ -42463,7 +42462,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="673" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:19">
       <c r="A673" s="1" t="s">
         <v>720</v>
       </c>
@@ -42522,7 +42521,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="674" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:19">
       <c r="A674" s="1" t="s">
         <v>721</v>
       </c>
@@ -42581,7 +42580,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="675" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:19">
       <c r="A675" s="1" t="s">
         <v>722</v>
       </c>
@@ -42640,7 +42639,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="676" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:19">
       <c r="A676" s="1" t="s">
         <v>723</v>
       </c>
@@ -42699,7 +42698,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="677" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:19">
       <c r="A677" s="1" t="s">
         <v>724</v>
       </c>
@@ -42758,7 +42757,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="678" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:19">
       <c r="A678" s="1" t="s">
         <v>725</v>
       </c>
@@ -42817,7 +42816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:19">
       <c r="A679" s="1" t="s">
         <v>726</v>
       </c>
@@ -42876,7 +42875,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="680" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:19">
       <c r="A680" s="1" t="s">
         <v>727</v>
       </c>
@@ -42935,7 +42934,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="681" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:19">
       <c r="A681" s="1" t="s">
         <v>728</v>
       </c>
@@ -42994,7 +42993,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="682" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:19">
       <c r="A682" s="1" t="s">
         <v>729</v>
       </c>
@@ -43053,7 +43052,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="683" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:19">
       <c r="A683" s="1" t="s">
         <v>730</v>
       </c>
@@ -43112,7 +43111,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="684" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:19">
       <c r="A684" s="1" t="s">
         <v>731</v>
       </c>
@@ -43171,7 +43170,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="685" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:19">
       <c r="A685" s="1" t="s">
         <v>732</v>
       </c>
@@ -43230,7 +43229,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="686" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:19">
       <c r="A686" s="1" t="s">
         <v>733</v>
       </c>
@@ -43289,7 +43288,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="687" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:19">
       <c r="A687" s="1" t="s">
         <v>734</v>
       </c>
@@ -43348,7 +43347,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="688" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:19">
       <c r="A688" s="1" t="s">
         <v>735</v>
       </c>
@@ -43407,7 +43406,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="689" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:19">
       <c r="A689" s="1" t="s">
         <v>736</v>
       </c>
@@ -43466,7 +43465,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="690" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:19">
       <c r="A690" s="1" t="s">
         <v>737</v>
       </c>
@@ -43525,7 +43524,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="691" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:19">
       <c r="A691" s="1" t="s">
         <v>738</v>
       </c>
@@ -43584,7 +43583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="692" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:19">
       <c r="A692" s="1" t="s">
         <v>739</v>
       </c>
@@ -43643,7 +43642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="693" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:19">
       <c r="A693" s="1" t="s">
         <v>740</v>
       </c>
@@ -43702,7 +43701,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="694" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:19">
       <c r="A694" s="1" t="s">
         <v>741</v>
       </c>
@@ -43761,7 +43760,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="695" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:19">
       <c r="A695" s="1" t="s">
         <v>742</v>
       </c>
@@ -43820,7 +43819,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="696" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:19">
       <c r="A696" s="1" t="s">
         <v>743</v>
       </c>
@@ -43879,7 +43878,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="697" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:19">
       <c r="A697" s="1" t="s">
         <v>744</v>
       </c>
@@ -43938,7 +43937,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="698" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:19">
       <c r="A698" s="1" t="s">
         <v>745</v>
       </c>
@@ -43997,7 +43996,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="699" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:19">
       <c r="A699" s="1" t="s">
         <v>746</v>
       </c>
@@ -44056,7 +44055,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="700" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:19">
       <c r="A700" s="1" t="s">
         <v>747</v>
       </c>
@@ -44115,7 +44114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="701" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:19">
       <c r="A701" s="1" t="s">
         <v>748</v>
       </c>
@@ -44174,7 +44173,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="702" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:19">
       <c r="A702" s="1" t="s">
         <v>749</v>
       </c>
@@ -44233,7 +44232,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="703" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:19">
       <c r="A703" s="1" t="s">
         <v>750</v>
       </c>
@@ -44292,7 +44291,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="704" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:19">
       <c r="A704" s="1" t="s">
         <v>751</v>
       </c>
@@ -44351,7 +44350,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:19">
       <c r="A705" s="1" t="s">
         <v>752</v>
       </c>
@@ -44410,7 +44409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:19">
       <c r="A706" s="1" t="s">
         <v>753</v>
       </c>
@@ -44469,7 +44468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="707" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:19">
       <c r="A707" s="1" t="s">
         <v>754</v>
       </c>
@@ -44528,7 +44527,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:19">
       <c r="A708" s="1" t="s">
         <v>755</v>
       </c>
@@ -44587,7 +44586,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="709" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:19">
       <c r="A709" s="1" t="s">
         <v>756</v>
       </c>
@@ -44646,7 +44645,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:19">
       <c r="A710" s="1" t="s">
         <v>757</v>
       </c>
@@ -44705,7 +44704,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:19">
       <c r="A711" s="1" t="s">
         <v>758</v>
       </c>
@@ -44764,7 +44763,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:19">
       <c r="A712" s="1" t="s">
         <v>759</v>
       </c>
@@ -44823,7 +44822,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:19">
       <c r="A713" s="1" t="s">
         <v>760</v>
       </c>
@@ -44882,7 +44881,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:19">
       <c r="A714" s="1" t="s">
         <v>761</v>
       </c>
@@ -44941,7 +44940,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:19">
       <c r="A715" s="1" t="s">
         <v>762</v>
       </c>
@@ -45000,7 +44999,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:19">
       <c r="A716" s="1" t="s">
         <v>763</v>
       </c>
@@ -45059,7 +45058,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:19">
       <c r="A717" s="1" t="s">
         <v>764</v>
       </c>
@@ -45118,7 +45117,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:19">
       <c r="A718" s="1" t="s">
         <v>765</v>
       </c>
@@ -45177,7 +45176,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:19">
       <c r="A719" s="1" t="s">
         <v>766</v>
       </c>
@@ -45236,7 +45235,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:19">
       <c r="A720" s="1" t="s">
         <v>767</v>
       </c>
@@ -45295,7 +45294,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="721" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:19">
       <c r="A721" s="1" t="s">
         <v>768</v>
       </c>
@@ -45354,7 +45353,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="722" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:19">
       <c r="A722" s="1" t="s">
         <v>769</v>
       </c>
@@ -45413,7 +45412,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="723" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:19">
       <c r="A723" s="1" t="s">
         <v>770</v>
       </c>
@@ -45472,7 +45471,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="724" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:19">
       <c r="A724" s="1" t="s">
         <v>771</v>
       </c>
@@ -45531,7 +45530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:19">
       <c r="A725" s="1" t="s">
         <v>772</v>
       </c>
@@ -45590,7 +45589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:19">
       <c r="A726" s="1" t="s">
         <v>773</v>
       </c>
@@ -45649,7 +45648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:19">
       <c r="A727" s="1" t="s">
         <v>774</v>
       </c>
@@ -45708,7 +45707,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="728" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:19">
       <c r="A728" s="1" t="s">
         <v>775</v>
       </c>
@@ -45767,7 +45766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="729" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:19">
       <c r="A729" s="1" t="s">
         <v>776</v>
       </c>
@@ -45826,7 +45825,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="730" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:19">
       <c r="A730" s="1" t="s">
         <v>777</v>
       </c>
@@ -45885,7 +45884,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="731" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:19">
       <c r="A731" s="1" t="s">
         <v>778</v>
       </c>
@@ -45944,7 +45943,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="732" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:19">
       <c r="A732" s="1" t="s">
         <v>779</v>
       </c>
@@ -46003,7 +46002,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="733" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:19">
       <c r="A733" s="1" t="s">
         <v>780</v>
       </c>
@@ -46062,7 +46061,7 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="734" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:19">
       <c r="A734" s="1" t="s">
         <v>781</v>
       </c>
@@ -46121,7 +46120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="735" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:19">
       <c r="A735" s="1" t="s">
         <v>782</v>
       </c>
@@ -46180,7 +46179,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="736" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:19">
       <c r="A736" s="1" t="s">
         <v>783</v>
       </c>
@@ -46239,7 +46238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="737" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:19">
       <c r="A737" s="1" t="s">
         <v>784</v>
       </c>
@@ -46298,7 +46297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:19">
       <c r="A738" s="1" t="s">
         <v>785</v>
       </c>
@@ -46357,7 +46356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="739" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:19">
       <c r="A739" s="1" t="s">
         <v>786</v>
       </c>
@@ -46416,7 +46415,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="740" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:19">
       <c r="A740" s="1" t="s">
         <v>787</v>
       </c>
@@ -46475,7 +46474,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="741" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:19">
       <c r="A741" s="1" t="s">
         <v>788</v>
       </c>
@@ -46534,7 +46533,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="742" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:19">
       <c r="A742" s="1" t="s">
         <v>789</v>
       </c>
@@ -46593,7 +46592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="743" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:19">
       <c r="A743" s="1" t="s">
         <v>790</v>
       </c>
@@ -46652,7 +46651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="744" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:19">
       <c r="A744" s="1" t="s">
         <v>791</v>
       </c>
@@ -46711,7 +46710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="745" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:19">
       <c r="A745" s="1" t="s">
         <v>792</v>
       </c>
@@ -46770,7 +46769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="746" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:19">
       <c r="A746" s="1" t="s">
         <v>793</v>
       </c>
@@ -46829,7 +46828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="747" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:19">
       <c r="A747" s="1" t="s">
         <v>794</v>
       </c>
@@ -46888,7 +46887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="748" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:19">
       <c r="A748" s="1" t="s">
         <v>795</v>
       </c>
@@ -46947,7 +46946,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="749" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:19">
       <c r="A749" s="1" t="s">
         <v>796</v>
       </c>
@@ -47006,7 +47005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="750" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:19">
       <c r="A750" s="1" t="s">
         <v>797</v>
       </c>
@@ -47065,7 +47064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="751" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:19">
       <c r="A751" s="1" t="s">
         <v>798</v>
       </c>
@@ -47124,7 +47123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="752" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:19">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -47147,5 +47146,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>